--- a/ScrumDoku/Sprint_Backlog.xlsx
+++ b/ScrumDoku/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="6" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="4" sheetId="7" r:id="rId5"/>
     <sheet name="5" sheetId="8" r:id="rId6"/>
     <sheet name="6" sheetId="9" r:id="rId7"/>
+    <sheet name="7" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="101">
   <si>
     <t>StoryID</t>
   </si>
@@ -100,9 +101,6 @@
     <t>Der Spieler sieht welche Schiffe zur Verfügung stehen und welche davon schon platziert wurden.</t>
   </si>
   <si>
-    <t>Scrum Master: Smelt Alexander</t>
-  </si>
-  <si>
     <t>Der Spieler kann mitten im Spielverlauf die Lösung anzeigen lassen.</t>
   </si>
   <si>
@@ -200,9 +198,6 @@
   </si>
   <si>
     <t>Der Spieler kann das Spiel jederzeit neu starten / resetten.</t>
-  </si>
-  <si>
-    <t>Scrum Master: Yesil Egemen</t>
   </si>
   <si>
     <t>Bimaru: Sprint Backlog 4</t>
@@ -233,9 +228,6 @@
  er zum Lösen des Spiels brauchte.</t>
   </si>
   <si>
-    <t>beim drücken des Clock-Buttons wird die aktuelle Zeit in einem neuen Fenster angezeigt</t>
-  </si>
-  <si>
     <t>Zeit laufend aktualisieren</t>
   </si>
   <si>
@@ -296,16 +288,43 @@
     <t>Anleitung verbessern</t>
   </si>
   <si>
-    <t>csolis, eyesil</t>
-  </si>
-  <si>
     <t>Scrum Master: Egemen Yesil</t>
   </si>
   <si>
-    <t>altes Fenster bei Spiellevelwechsel schliessen</t>
-  </si>
-  <si>
-    <t>Spielname Spiellevel anzeigen</t>
+    <t>beim Drücken des Clock-Buttons wird die aktuelle Zeit in einem neuen Fenster angezeigt</t>
+  </si>
+  <si>
+    <t>Felder der Reihenach überprüfen, bis Abweichung festgestellt wird --&gt; nicht gelöst</t>
+  </si>
+  <si>
+    <t>Meldung anzeigen</t>
+  </si>
+  <si>
+    <t>Scrum Master: Alexander Smelt</t>
+  </si>
+  <si>
+    <t>altes Fenster bei Spiellevelwechsel aktualisieren</t>
+  </si>
+  <si>
+    <t>Testen</t>
+  </si>
+  <si>
+    <t>Alle Funktionen der Toolbar testen</t>
+  </si>
+  <si>
+    <t>Schiffe platzieren und Anzeige testen</t>
+  </si>
+  <si>
+    <t>Bimaru: Sprint Backlog 7</t>
+  </si>
+  <si>
+    <t>Spielname und -Pfad aus XML laden</t>
+  </si>
+  <si>
+    <t>geladene Namen in JComboBox darstellen</t>
+  </si>
+  <si>
+    <t>Machbarkeitsanalyse</t>
   </si>
 </sst>
 </file>
@@ -510,9 +529,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,7 +569,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -622,7 +641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -799,7 +818,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +831,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="1"/>
@@ -848,7 +867,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -860,7 +879,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
@@ -872,7 +891,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
@@ -890,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,13 +937,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
@@ -942,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,12 +973,12 @@
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="22"/>
     </row>
@@ -1160,7 +1179,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="22"/>
     </row>
@@ -1183,7 +1202,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1280,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -1284,7 +1303,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>7</v>
@@ -1312,7 +1331,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>7</v>
@@ -1324,7 +1343,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>7</v>
@@ -1336,7 +1355,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>7</v>
@@ -1348,7 +1367,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1360,7 +1379,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>7</v>
@@ -1380,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -1388,10 +1407,10 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>18</v>
@@ -1428,7 +1447,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1460,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8"/>
@@ -1477,13 +1496,13 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
@@ -1505,25 +1524,25 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
@@ -1545,7 +1564,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>7</v>
@@ -1557,7 +1576,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>7</v>
@@ -1569,7 +1588,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>7</v>
@@ -1581,7 +1600,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>7</v>
@@ -1601,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -1609,7 +1628,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>7</v>
@@ -1621,7 +1640,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>7</v>
@@ -1633,7 +1652,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>7</v>
@@ -1645,7 +1664,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>7</v>
@@ -1665,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -1673,10 +1692,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>18</v>
@@ -1690,7 +1709,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B28" s="22"/>
     </row>
@@ -1712,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,7 +1745,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8"/>
@@ -1762,10 +1781,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>18</v>
@@ -1774,22 +1793,22 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
@@ -1806,7 +1825,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
@@ -1814,10 +1833,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
@@ -1834,7 +1853,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
@@ -1842,7 +1861,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
@@ -1862,7 +1881,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -1870,7 +1889,7 @@
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>7</v>
@@ -1882,7 +1901,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1894,7 +1913,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>7</v>
@@ -1914,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -1922,30 +1941,30 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B25" s="22"/>
     </row>
@@ -1965,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +2000,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8"/>
@@ -2017,25 +2036,25 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2049,18 +2068,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2069,28 +2092,38 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="5">
+        <v>16</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>16</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -2098,57 +2131,63 @@
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="15" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="B15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>11</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>18</v>
@@ -2156,66 +2195,54 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="C23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="22"/>
+      <c r="B26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2225,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,7 +2266,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8"/>
@@ -2275,53 +2302,49 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="17"/>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="17"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>11</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
@@ -2329,12 +2352,14 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -2344,10 +2369,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
@@ -2355,12 +2380,14 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -2370,7 +2397,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B16" s="22"/>
     </row>
@@ -2384,4 +2411,195 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ScrumDoku/Sprint_Backlog.xlsx
+++ b/ScrumDoku/Sprint_Backlog.xlsx
@@ -529,9 +529,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -569,7 +569,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -641,7 +641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1731,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,7 +2253,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,7 +2358,7 @@
         <v>82</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
